--- a/express-backend/utils/uploaded_files/student_list_excel/BSCS_2ndYear_A.xlsx
+++ b/express-backend/utils/uploaded_files/student_list_excel/BSCS_2ndYear_A.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince pascua\Downloads\vscodes\FINAL TEST\studentpdf_done\PDFonly\revised_data_proc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop HDD\ints\InstSys-CaseStudy-AI\express-backend\utils\uploaded_files\student_list_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A323719-2346-4BFC-9A3D-124CD9A2F685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65BD70E-150C-4604-9DD7-8ABB61CD7A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="45" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="189">
   <si>
     <t>Student ID</t>
   </si>
@@ -586,6 +581,12 @@
   </si>
   <si>
     <t>PDM-2025-000060</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -626,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -649,16 +650,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -963,25 +978,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1024,14 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -1039,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -1068,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -1184,7 +1205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -1213,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -1242,7 +1263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -1300,7 +1321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -1329,7 +1350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -1358,7 +1379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>169</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>170</v>
       </c>
@@ -1416,7 +1437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -1445,7 +1466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -1474,7 +1495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>173</v>
       </c>
@@ -1503,7 +1524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -1561,7 +1582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -1590,7 +1611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -1619,7 +1640,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -1648,7 +1669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -1677,7 +1698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -1706,7 +1727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -1735,7 +1756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -1764,7 +1785,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -1793,7 +1814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -1822,7 +1843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -1851,7 +1872,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>186</v>
       </c>
